--- a/aichan/551332212920170152_2021-07-25_17-30-34.xlsx
+++ b/aichan/551332212920170152_2021-07-25_17-30-34.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-06 03:22:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44414.14082175926</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -602,10 +616,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-06 03:22:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44414.14043981482</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -665,10 +677,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-06 03:20:58</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44414.13956018518</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -735,10 +745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-02 04:04:22</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44410.16969907407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -824,10 +832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:48:20</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44408.78356481482</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -891,10 +897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-31 08:54:35</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44408.37123842593</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -966,10 +970,8 @@
           <t>5027946709</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:43:52</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44407.65546296296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1037,10 +1039,8 @@
           <t>5027879849</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-30 15:34:50</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44407.64918981482</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1108,10 +1108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:20:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44407.55560185185</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1183,10 +1181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:16:42</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44407.55326388889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1250,10 +1246,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:16:51</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44406.97003472222</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1321,10 +1315,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:11:26</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44406.96627314815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1388,10 +1380,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:02:16</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44406.95990740741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1459,10 +1449,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:01:04</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44406.95907407408</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1526,10 +1514,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:58:34</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44406.95733796297</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1597,10 +1583,8 @@
           <t>5023010373</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:37:56</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44406.94300925926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1668,10 +1652,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:35:40</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44406.94143518519</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1735,10 +1717,8 @@
           <t>5023010373</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:34:14</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44406.94043981482</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1803,10 +1783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-29 19:41:03</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44406.82017361111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1870,10 +1848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-29 08:45:36</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44406.365</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1945,10 +1921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-29 08:45:28</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44406.36490740741</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2020,10 +1994,8 @@
           <t>5015637193</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-29 00:31:52</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44406.02212962963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2087,10 +2059,8 @@
           <t>5015623732</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-29 00:30:21</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44406.02107638889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2154,10 +2124,8 @@
           <t>5015605493</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-29 00:26:29</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44406.0183912037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2227,10 +2195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-28 19:00:43</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44405.79216435185</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2298,10 +2264,8 @@
           <t>5011341798</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-28 15:41:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44405.65415509259</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2369,10 +2333,8 @@
           <t>5007428180</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-28 12:52:49</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44405.53667824074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2442,10 +2404,8 @@
           <t>5007428180</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-28 11:37:05</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44405.48408564815</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2509,10 +2469,8 @@
           <t>5007428180</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-28 10:53:02</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44405.45349537037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2580,10 +2538,8 @@
           <t>5007428180</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-28 10:52:13</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44405.45292824074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2651,10 +2607,8 @@
           <t>5007428437</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-28 10:50:55</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44405.45202546296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2722,10 +2676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-28 10:12:54</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44405.425625</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2797,10 +2749,8 @@
           <t>5007428437</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-28 09:14:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44405.38506944444</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2865,10 +2815,8 @@
           <t>5007428180</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-28 02:11:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44405.09125</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2932,10 +2880,8 @@
           <t>5007428437</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:48:59</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44405.0340162037</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3003,10 +2949,8 @@
           <t>5007428180</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:48:50</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44405.03391203703</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3074,10 +3018,8 @@
           <t>5007427276</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:48:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44405.03358796296</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3145,10 +3087,8 @@
           <t>5007423463</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:46:56</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44405.03259259259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3216,10 +3156,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-27 23:40:24</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44404.98638888889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3287,10 +3225,8 @@
           <t>5006552503</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:51:38</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44404.95252314815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3358,10 +3294,8 @@
           <t>5006506363</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:46:10</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44404.94872685185</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3429,10 +3363,8 @@
           <t>5006489084</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:44:14</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44404.94738425926</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3500,10 +3432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:52:56</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44404.3700925926</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -3575,10 +3505,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:45:36</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44404.03166666667</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3642,10 +3570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-26 20:48:47</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44403.86721064815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3713,10 +3639,8 @@
           <t>4988587399</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-26 19:22:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44403.80738425926</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3784,10 +3708,8 @@
           <t>4995009555</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:40:34</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44403.73650462963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3855,10 +3777,8 @@
           <t>4996030129</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:38:22</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44403.73497685185</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3918,10 +3838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:34:42</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44403.73243055555</v>
       </c>
       <c r="I50" t="n">
         <v>4</v>
@@ -3994,10 +3912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:15:20</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44403.71898148148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4073,10 +3989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:56:26</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44403.70585648148</v>
       </c>
       <c r="I52" t="n">
         <v>7</v>
@@ -4140,10 +4054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:16:46</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44403.67831018518</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4261,10 +4173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:58:48</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44403.66583333333</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4367,10 +4277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:58:35</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44403.66568287037</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4474,10 +4382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:58:05</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44403.66533564815</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4550,10 +4456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:57:52</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44403.66518518519</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4660,10 +4564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:57:39</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44403.66503472222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4733,10 +4635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:57:31</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44403.66494212963</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4796,10 +4696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:45:06</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44403.65631944445</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4875,10 +4773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:42:40</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44403.65462962963</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4938,10 +4834,8 @@
           <t>4995009555</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:53:50</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44403.6207175926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5017,10 +4911,8 @@
           <t>4988587399</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:45:50</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44403.61516203704</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5088,10 +4980,8 @@
           <t>4992357682</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:12:13</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44403.59181712963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5167,10 +5057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-26 13:28:14</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44403.56127314815</v>
       </c>
       <c r="I65" t="n">
         <v>11</v>
@@ -5230,10 +5118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-26 13:25:17</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44403.55922453704</v>
       </c>
       <c r="I66" t="n">
         <v>8</v>
@@ -5309,10 +5195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:56:18</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44403.53909722222</v>
       </c>
       <c r="I67" t="n">
         <v>4</v>
@@ -5376,10 +5260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:26:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44403.51856481482</v>
       </c>
       <c r="I68" t="n">
         <v>5</v>
@@ -5455,10 +5337,8 @@
           <t>4988587399</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:56:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44403.4978587963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5526,10 +5406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:24:38</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44403.47543981481</v>
       </c>
       <c r="I70" t="n">
         <v>4</v>
@@ -5589,10 +5467,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:23:56</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44403.47495370371</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5668,10 +5544,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:17:07</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44403.47021990741</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5731,10 +5605,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:26:19</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44403.43494212963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5802,10 +5674,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:19:43</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44403.43035879629</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5881,10 +5751,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:18:58</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44403.42983796296</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5960,10 +5828,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:17:10</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44403.42858796296</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6031,10 +5897,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:13:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44403.4260300926</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6110,10 +5974,8 @@
           <t>4993184854</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:08:41</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44403.42269675926</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6181,10 +6043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:22:49</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44403.39084490741</v>
       </c>
       <c r="I79" t="n">
         <v>11</v>
@@ -6248,10 +6108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:44:47</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44403.36443287037</v>
       </c>
       <c r="I80" t="n">
         <v>9</v>
@@ -6323,10 +6181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:35:51</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44403.35822916667</v>
       </c>
       <c r="I81" t="n">
         <v>4</v>
@@ -6387,10 +6243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:22:28</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44403.34893518518</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6454,10 +6308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:28:32</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44403.31148148148</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6521,10 +6373,8 @@
           <t>4991771206</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:01:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44403.29251157407</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6584,10 +6434,8 @@
           <t>4992357682</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-26 05:33:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44403.23179398148</v>
       </c>
       <c r="I85" t="n">
         <v>4</v>
@@ -6659,10 +6507,8 @@
           <t>4992286362</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-26 04:08:42</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44403.17270833333</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6726,10 +6572,8 @@
           <t>4992135065</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:33:52</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44403.10685185185</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6805,10 +6649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:32:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44403.10561342593</v>
       </c>
       <c r="I88" t="n">
         <v>7</v>
@@ -6876,10 +6718,8 @@
           <t>4992077401</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:12:57</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44403.09232638889</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6955,10 +6795,8 @@
           <t>4991332045</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:06:43</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44403.08799768519</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7034,10 +6872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:51:12</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44403.07722222222</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7128,10 +6964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:37:11</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44403.06748842593</v>
       </c>
       <c r="I92" t="n">
         <v>20</v>
@@ -7198,10 +7032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:08:57</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44403.04788194445</v>
       </c>
       <c r="I93" t="n">
         <v>11</v>
@@ -7265,10 +7097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:08:54</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44403.04784722222</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7328,10 +7158,8 @@
           <t>4991332045</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:04:07</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44403.04452546296</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7406,10 +7234,8 @@
           <t>4991771206</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:52:43</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44403.0366087963</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7485,10 +7311,8 @@
           <t>4991762684</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:51:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44403.03577546297</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7564,10 +7388,8 @@
           <t>4991332045</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:50:18</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44403.03493055556</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7643,10 +7465,8 @@
           <t>4991681653</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:36:49</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44403.02556712963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7719,10 +7539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:34:31</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44403.02396990741</v>
       </c>
       <c r="I100" t="n">
         <v>9</v>
@@ -7790,10 +7608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:32:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44403.02255787037</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7857,10 +7673,8 @@
           <t>4991632569</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:27:33</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44403.01913194444</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7928,10 +7742,8 @@
           <t>4988666515</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:18:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44403.01302083334</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -8007,10 +7819,8 @@
           <t>4991564805</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:17:40</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44403.01226851852</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8086,10 +7896,8 @@
           <t>4991332045</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:16:53</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44403.01172453703</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8165,10 +7973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:08:28</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44403.00587962963</v>
       </c>
       <c r="I106" t="n">
         <v>8</v>
@@ -8232,10 +8038,8 @@
           <t>4988499569</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:43:59</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44402.98887731481</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8299,10 +8103,8 @@
           <t>4991332045</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:43:40</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44402.9886574074</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8374,10 +8176,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:42:11</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44402.98762731482</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8449,10 +8249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:34:29</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44402.98228009259</v>
       </c>
       <c r="I110" t="n">
         <v>14</v>
@@ -8520,10 +8318,8 @@
           <t>4991230862</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:30:25</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44402.97945601852</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8584,10 +8380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:22:15</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44402.97378472222</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -8651,10 +8445,8 @@
           <t>4990427474</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:12:19</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44402.96688657408</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8722,10 +8514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:11:40</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44402.96643518518</v>
       </c>
       <c r="I114" t="n">
         <v>7</v>
@@ -8793,10 +8583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:02:00</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44402.95972222222</v>
       </c>
       <c r="I115" t="n">
         <v>12</v>
@@ -8872,10 +8660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:01:53</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44402.95964120371</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8951,10 +8737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:01:46</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44402.95956018518</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9030,10 +8814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:52:13</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44402.95292824074</v>
       </c>
       <c r="I118" t="n">
         <v>2</v>
@@ -9102,10 +8884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:28:53</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44402.93672453704</v>
       </c>
       <c r="I119" t="n">
         <v>5</v>
@@ -9178,10 +8958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:28:03</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44402.93614583334</v>
       </c>
       <c r="I120" t="n">
         <v>6</v>
@@ -9246,10 +9024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:58:38</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44402.91571759259</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9313,10 +9089,8 @@
           <t>4990435611</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:54:04</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44402.9125462963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9384,10 +9158,8 @@
           <t>4990427474</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:53:29</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44402.91214120371</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9455,10 +9227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:50:12</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44402.90986111111</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9526,10 +9296,8 @@
           <t>4989592668</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:23:04</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44402.89101851852</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9597,10 +9365,8 @@
           <t>4990132868</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:17:59</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44402.88748842593</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9664,10 +9430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:14:10</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44402.88483796296</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9735,10 +9499,8 @@
           <t>4990098696</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:14:09</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44402.88482638889</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9802,10 +9564,8 @@
           <t>4990094005</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:13:48</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44402.88458333333</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9877,10 +9637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:12:56</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44402.88398148148</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9954,10 +9712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:12:08</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44402.88342592592</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10017,10 +9773,8 @@
           <t>4990081961</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:11:59</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44402.88332175926</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10080,10 +9834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:11:20</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44402.88287037037</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -10145,10 +9897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:11:11</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44402.8827662037</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10208,10 +9958,8 @@
           <t>4989995821</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:01:47</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44402.87623842592</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10283,10 +10031,8 @@
           <t>4988469953</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:59:32</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44402.87467592592</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10354,10 +10100,8 @@
           <t>4988469953</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:59:13</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44402.87445601852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10426,10 +10170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:48:37</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44402.86709490741</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10497,10 +10239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:46:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44402.86549768518</v>
       </c>
       <c r="I139" t="n">
         <v>2</v>
@@ -10576,10 +10316,8 @@
           <t>4989601173</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:44:38</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44402.8643287037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10651,10 +10389,8 @@
           <t>4989574278</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:42:32</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44402.86287037037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10726,10 +10462,8 @@
           <t>4988587399</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:41:28</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44402.86212962963</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10797,10 +10531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:39:31</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44402.86077546296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10872,10 +10604,8 @@
           <t>4989574278</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:33:43</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44402.85674768518</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10951,10 +10681,8 @@
           <t>4989574278</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:33:04</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44402.8562962963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11018,10 +10746,8 @@
           <t>4989717480</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:31:11</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44402.85498842593</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11097,10 +10823,8 @@
           <t>4989601173</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:23:56</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44402.84995370371</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11176,10 +10900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:21:47</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44402.84846064815</v>
       </c>
       <c r="I148" t="n">
         <v>3</v>
@@ -11255,10 +10977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:20:11</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44402.84734953703</v>
       </c>
       <c r="I149" t="n">
         <v>4</v>
@@ -11334,10 +11054,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:18:47</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44402.84637731482</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11413,10 +11131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:17:03</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44402.84517361111</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11488,10 +11204,8 @@
           <t>4989599962</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:16:26</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44402.84474537037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11563,10 +11277,8 @@
           <t>4989586433</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:16:07</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44402.84452546296</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11634,10 +11346,8 @@
           <t>4989599162</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:16:06</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44402.84451388889</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11709,10 +11419,8 @@
           <t>4989601173</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:15:38</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44402.84418981482</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11784,10 +11492,8 @@
           <t>4989592668</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:14:44</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44402.84356481482</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11859,10 +11565,8 @@
           <t>4989586433</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:13:39</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44402.8428125</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11934,10 +11638,8 @@
           <t>4989574278</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:12:46</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44402.84219907408</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12009,10 +11711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:08:38</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44402.8393287037</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12076,10 +11776,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:59:55</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44402.83327546297</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12155,10 +11853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:59:50</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44402.83321759259</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12226,10 +11922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:58:30</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44402.83229166667</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12297,10 +11991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:52:55</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44402.82841435185</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12376,10 +12068,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:51:14</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44402.82724537037</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12456,10 +12146,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:50:52</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44402.82699074074</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12535,10 +12223,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:49:04</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44402.82574074074</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12614,10 +12300,8 @@
           <t>4988591389</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:48:50</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44402.82557870371</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12689,10 +12373,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:47:14</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44402.8244675926</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12760,10 +12442,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:46:39</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44402.8240625</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12839,10 +12519,8 @@
           <t>4989377254</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:44:25</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44402.82251157407</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12919,10 +12597,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:42:43</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44402.82133101852</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12990,10 +12666,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:41:49</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44402.82070601852</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13070,10 +12744,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:39:24</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44402.81902777778</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13141,10 +12813,8 @@
           <t>4989321339</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:37:21</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44402.81760416667</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13220,10 +12890,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:37:21</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44402.81760416667</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13291,10 +12959,8 @@
           <t>4989321339</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:36:05</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44402.81672453704</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13366,10 +13032,8 @@
           <t>4989320938</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:35:55</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44402.8166087963</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13437,10 +13101,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:34:42</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44402.81576388889</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13516,10 +13178,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:33:24</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44402.81486111111</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13600,10 +13260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:33:19</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44402.81480324074</v>
       </c>
       <c r="I180" t="n">
         <v>11</v>
@@ -13663,10 +13321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:32:41</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44402.81436342592</v>
       </c>
       <c r="I181" t="n">
         <v>8</v>
@@ -13726,10 +13382,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:32:20</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44402.81412037037</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13797,10 +13451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:32:19</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44402.81410879629</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13863,10 +13515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:32:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44402.81398148148</v>
       </c>
       <c r="I184" t="n">
         <v>3</v>
@@ -13930,10 +13580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:32:04</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44402.81393518519</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -13993,10 +13641,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:10</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44402.81331018519</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14072,10 +13718,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:28:57</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44402.81177083333</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14143,10 +13787,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:27:52</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44402.81101851852</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14227,10 +13869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:26:31</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44402.81008101852</v>
       </c>
       <c r="I189" t="n">
         <v>18</v>
@@ -14298,10 +13938,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:25:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44402.80918981481</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14369,10 +14007,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:22:53</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44402.80755787037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14448,10 +14084,8 @@
           <t>4989079784</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:21:06</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44402.80631944445</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14527,10 +14161,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:20:45</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44402.80607638889</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14598,10 +14230,8 @@
           <t>4989198634</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:19:34</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44402.80525462963</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14677,10 +14307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:18:35</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44402.80457175926</v>
       </c>
       <c r="I195" t="n">
         <v>41</v>
@@ -14756,10 +14384,8 @@
           <t>4989107910</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:18:07</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44402.80424768518</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14827,10 +14453,8 @@
           <t>4989079784</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:17:46</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44402.80400462963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14898,10 +14522,8 @@
           <t>4989107910</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:17:24</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44402.80375</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14977,10 +14599,8 @@
           <t>4989107910</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:15:47</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44402.80262731481</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15048,10 +14668,8 @@
           <t>4989160940</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:14:02</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44402.80141203704</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15127,10 +14745,8 @@
           <t>4989160194</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:13:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44402.80118055556</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15206,10 +14822,8 @@
           <t>4988666515</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:12:24</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44402.80027777778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15285,10 +14899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:11:07</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44402.79938657407</v>
       </c>
       <c r="I203" t="n">
         <v>9</v>
@@ -15356,10 +14968,8 @@
           <t>4989136880</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:10:35</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44402.7990162037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15435,10 +15045,8 @@
           <t>4989136505</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:10:25</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44402.79890046296</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15514,10 +15122,8 @@
           <t>4989131807</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:09:54</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44402.79854166666</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15593,10 +15199,8 @@
           <t>4989128650</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:09:32</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44402.79828703704</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15664,10 +15268,8 @@
           <t>4989107910</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:06:47</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44402.79637731481</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15743,10 +15345,8 @@
           <t>4989080959</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:05:49</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44402.79570601852</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15810,10 +15410,8 @@
           <t>4989079784</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:03:31</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44402.7941087963</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15889,10 +15487,8 @@
           <t>4989077885</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:02:47</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44402.79359953704</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15956,10 +15552,8 @@
           <t>4989080959</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:02:46</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44402.79358796297</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16035,10 +15629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:00:51</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44402.79225694444</v>
       </c>
       <c r="I213" t="n">
         <v>9</v>
@@ -16114,10 +15706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:58:07</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44402.79035879629</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16177,10 +15767,8 @@
           <t>4988499569</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:57:23</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44402.78984953704</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16256,10 +15844,8 @@
           <t>4989014026</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:54:40</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44402.78796296296</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16331,10 +15917,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:54:09</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44402.78760416667</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16398,10 +15982,8 @@
           <t>4988966157</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:47:15</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44402.7828125</v>
       </c>
       <c r="I218" t="n">
         <v>4</v>
@@ -16473,10 +16055,8 @@
           <t>4988962160</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:46:24</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44402.78222222222</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16552,10 +16132,8 @@
           <t>4988753477</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:46:07</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44402.78202546296</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16623,10 +16201,8 @@
           <t>4988943467</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:44:48</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44402.78111111111</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16690,10 +16266,8 @@
           <t>4988445241</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:44:43</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44402.78105324074</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16769,10 +16343,8 @@
           <t>4988539404</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:43:36</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44402.78027777778</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16836,10 +16408,8 @@
           <t>4988627507</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:39:15</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44402.77725694444</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16903,10 +16473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:39:12</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44402.77722222222</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -16974,10 +16542,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:36:39</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44402.77545138889</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17041,10 +16607,8 @@
           <t>4988883637</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:36:37</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44402.77542824074</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17116,10 +16680,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:36:20</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44402.77523148148</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17183,10 +16745,8 @@
           <t>4988880673</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:35:34</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44402.77469907407</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17254,10 +16814,8 @@
           <t>4988880673</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:35:21</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44402.77454861111</v>
       </c>
       <c r="I230" t="n">
         <v>3</v>
@@ -17329,10 +16887,8 @@
           <t>4988499569</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:35:12</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44402.77444444445</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17396,10 +16952,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:34:48</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44402.77416666667</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17467,10 +17021,8 @@
           <t>4988873232</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:34:21</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44402.77385416667</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17534,10 +17086,8 @@
           <t>4988858821</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:32:30</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44402.77256944445</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17601,10 +17151,8 @@
           <t>4988861670</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:32:08</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44402.77231481481</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17668,10 +17216,8 @@
           <t>4988823940</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:27:44</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44402.76925925926</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17735,10 +17281,8 @@
           <t>4988823052</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:27:21</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44402.76899305556</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17814,10 +17358,8 @@
           <t>4988812264</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:25:37</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44402.76778935185</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17889,10 +17431,8 @@
           <t>4988702452</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:24:11</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44402.76679398148</v>
       </c>
       <c r="I239" t="n">
         <v>6</v>
@@ -17964,10 +17504,8 @@
           <t>4988805484</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:23:50</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44402.76655092592</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18035,10 +17573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:23:40</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44402.76643518519</v>
       </c>
       <c r="I241" t="n">
         <v>1</v>
@@ -18106,10 +17642,8 @@
           <t>4988753477</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:21:03</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44402.76461805555</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18181,10 +17715,8 @@
           <t>4988753477</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:17:45</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44402.76232638889</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18252,10 +17784,8 @@
           <t>4988744578</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:29</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44402.76144675926</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18323,10 +17853,8 @@
           <t>4988666515</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:11</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44402.76123842593</v>
       </c>
       <c r="I245" t="n">
         <v>5</v>
@@ -18387,10 +17915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:15:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44402.76060185185</v>
       </c>
       <c r="I246" t="n">
         <v>10</v>
@@ -18458,10 +17984,8 @@
           <t>4988735724</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:14:31</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44402.76008101852</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18533,10 +18057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:56</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44402.75967592592</v>
       </c>
       <c r="I248" t="n">
         <v>8</v>
@@ -18604,10 +18126,8 @@
           <t>4988616762</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:11</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44402.75915509259</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18683,10 +18203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:02</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44402.75905092592</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18758,10 +18276,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:12:43</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44402.75883101852</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18833,10 +18349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:58</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44402.75831018519</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18912,10 +18426,8 @@
           <t>4988539404</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:39</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44402.75809027778</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18983,10 +18495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:29</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44402.75797453704</v>
       </c>
       <c r="I254" t="n">
         <v>6</v>
@@ -19058,10 +18568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:15</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44402.7578125</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19131,10 +18639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:10</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44402.75775462963</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19202,10 +18708,8 @@
           <t>4988712344</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:04</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44402.75768518518</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19277,10 +18781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:02</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44402.75766203704</v>
       </c>
       <c r="I258" t="n">
         <v>3</v>
@@ -19352,10 +18854,8 @@
           <t>4988702452</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:54</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44402.75756944445</v>
       </c>
       <c r="I259" t="n">
         <v>9</v>
@@ -19415,10 +18915,8 @@
           <t>4988666897</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:17</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44402.75714120371</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19490,10 +18988,8 @@
           <t>4988638748</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:09:00</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44402.75625</v>
       </c>
       <c r="I261" t="n">
         <v>2</v>
@@ -19561,10 +19057,8 @@
           <t>4988688380</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:09:00</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44402.75625</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19632,10 +19126,8 @@
           <t>4988499569</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:41</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44402.75603009259</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19703,10 +19195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:37</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44402.75390046297</v>
       </c>
       <c r="I264" t="n">
         <v>8</v>
@@ -19774,10 +19264,8 @@
           <t>4988663210</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:10</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44402.75358796296</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19845,10 +19333,8 @@
           <t>4988652078</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:51</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44402.75336805556</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19916,10 +19402,8 @@
           <t>4988666897</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:43</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44402.75327546296</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19995,10 +19479,8 @@
           <t>4988666515</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:33</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44402.75315972222</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -20070,10 +19552,8 @@
           <t>4988612083</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44402.7529050926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20141,10 +19621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:03</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44402.7528125</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -20220,10 +19698,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:47</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44402.75262731482</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20302,10 +19778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:32</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44402.7524537037</v>
       </c>
       <c r="I272" t="n">
         <v>9</v>
@@ -20381,10 +19855,8 @@
           <t>4988627507</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:00</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44402.75208333333</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20448,10 +19920,8 @@
           <t>4988652078</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:52</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44402.75199074074</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20523,10 +19993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:09</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44402.75149305556</v>
       </c>
       <c r="I275" t="n">
         <v>12</v>
@@ -20586,10 +20054,8 @@
           <t>4988557841</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:55</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44402.75133101852</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20657,10 +20123,8 @@
           <t>4988638748</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:40</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44402.75115740741</v>
       </c>
       <c r="I277" t="n">
         <v>3</v>
@@ -20732,10 +20196,8 @@
           <t>4988627507</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:37</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44402.75112268519</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20813,10 +20275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:34</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44402.75039351852</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20892,10 +20352,8 @@
           <t>4988629156</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:30</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44402.75034722222</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20968,10 +20426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:59:42</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44402.74979166667</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -21039,10 +20495,8 @@
           <t>4988627507</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:59:41</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44402.74978009259</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21106,10 +20560,8 @@
           <t>4988621609</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:58:57</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44402.74927083333</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21173,10 +20625,8 @@
           <t>4988616762</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:58:38</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44402.74905092592</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21252,10 +20702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:58:07</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44402.74869212963</v>
       </c>
       <c r="I285" t="n">
         <v>108</v>
@@ -21327,10 +20775,8 @@
           <t>4988607390</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:57:12</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44402.74805555555</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21398,10 +20844,8 @@
           <t>4988612083</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:57:00</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44402.74791666667</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21473,10 +20917,8 @@
           <t>4988602436</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:56:58</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44402.74789351852</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21544,10 +20986,8 @@
           <t>4988602436</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:56:42</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44402.74770833334</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21619,10 +21059,8 @@
           <t>4988481957</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:56:39</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44402.74767361111</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21690,10 +21128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:56:23</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44402.74748842593</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21761,10 +21197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:56:09</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44402.74732638889</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21877,10 +21311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:55:33</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44402.74690972222</v>
       </c>
       <c r="I293" t="n">
         <v>15</v>
@@ -21944,10 +21376,8 @@
           <t>4988481957</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:55:30</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44402.746875</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22025,10 +21455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:55:20</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44402.74675925926</v>
       </c>
       <c r="I295" t="n">
         <v>4</v>
@@ -22092,10 +21520,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:55:17</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44402.74672453704</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22163,10 +21589,8 @@
           <t>4988481957</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:55</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44402.7464699074</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22231,10 +21655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:53</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44402.74644675926</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22302,10 +21724,8 @@
           <t>4988481957</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:51</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44402.74642361111</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22373,10 +21793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:50</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44402.74641203704</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22444,10 +21862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:47</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44402.74637731481</v>
       </c>
       <c r="I301" t="n">
         <v>6</v>
@@ -22523,10 +21939,8 @@
           <t>4988591389</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:46</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44402.74636574074</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22598,10 +22012,8 @@
           <t>4988587399</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:30</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44402.74618055556</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22669,10 +22081,8 @@
           <t>4988587140</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:23</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44402.74609953703</v>
       </c>
       <c r="I304" t="n">
         <v>2</v>
@@ -22740,10 +22150,8 @@
           <t>4988591389</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:17</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44402.7460300926</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22811,10 +22219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:54:06</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44402.74590277778</v>
       </c>
       <c r="I306" t="n">
         <v>15</v>
@@ -22882,10 +22288,8 @@
           <t>4988583746</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:53:31</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44402.74549768519</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22957,10 +22361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:53:29</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44402.74547453703</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23028,10 +22430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:53:08</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44402.74523148148</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23099,10 +22499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:53:05</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44402.74519675926</v>
       </c>
       <c r="I310" t="n">
         <v>16</v>
@@ -23180,10 +22578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:51:47</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44402.74429398148</v>
       </c>
       <c r="I311" t="n">
         <v>14</v>
@@ -23255,10 +22651,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:51:46</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44402.74428240741</v>
       </c>
       <c r="I312" t="n">
         <v>8</v>
@@ -23335,10 +22729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:51:40</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44402.74421296296</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23414,10 +22806,8 @@
           <t>4988559851</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:51:10</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44402.74386574074</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23481,10 +22871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:50:59</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44402.74373842592</v>
       </c>
       <c r="I315" t="n">
         <v>8</v>
@@ -23552,10 +22940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:50:49</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44402.74362268519</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23623,10 +23009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:50:28</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44402.74337962963</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23690,10 +23074,8 @@
           <t>4988557841</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:50:11</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44402.74318287037</v>
       </c>
       <c r="I318" t="n">
         <v>3</v>
@@ -23761,10 +23143,8 @@
           <t>4988557733</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:50:07</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44402.74313657408</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23840,10 +23220,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:49:39</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44402.7428125</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23915,10 +23293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:49:24</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44402.74263888889</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23994,10 +23370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:49:19</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44402.74258101852</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24069,10 +23443,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:49:08</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44402.7424537037</v>
       </c>
       <c r="I323" t="n">
         <v>2</v>
@@ -24136,10 +23508,8 @@
           <t>4988560282</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:49:07</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44402.74244212963</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24208,10 +23578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:48:46</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44402.74219907408</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24287,10 +23655,8 @@
           <t>4988548724</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:48:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44402.74197916667</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -24366,10 +23732,8 @@
           <t>4988551123</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:48:13</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44402.74181712963</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24437,10 +23801,8 @@
           <t>4988543099</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:55</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44402.7416087963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24512,10 +23874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:50</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44402.74155092592</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24591,10 +23951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:39</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44402.74142361111</v>
       </c>
       <c r="I330" t="n">
         <v>9</v>
@@ -24666,10 +24024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:32</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44402.74134259259</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24741,10 +24097,8 @@
           <t>4988539404</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:32</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44402.74134259259</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24808,10 +24162,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:27</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44402.74128472222</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24875,10 +24227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:24</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44402.74125</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24938,10 +24288,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:15</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44402.74114583333</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25017,10 +24365,8 @@
           <t>4988538386</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:47:06</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44402.74104166667</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25088,10 +24434,8 @@
           <t>4988545230</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:46:58</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44402.74094907408</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25159,10 +24503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:46:48</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44402.74083333334</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25230,10 +24572,8 @@
           <t>4988537443</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:46:42</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44402.74076388889</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25309,10 +24649,8 @@
           <t>4988534110</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:46:28</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44402.74060185185</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25384,10 +24722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:46:21</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44402.74052083334</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25462,10 +24798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:45:57</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44402.74024305555</v>
       </c>
       <c r="I342" t="n">
         <v>11</v>
@@ -25533,10 +24867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:45:43</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44402.74008101852</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25604,10 +24936,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:45:37</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44402.74001157407</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25679,10 +25009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:45:32</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44402.73995370371</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25746,10 +25074,8 @@
           <t>4988527409</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:45:10</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44402.73969907407</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25825,10 +25151,8 @@
           <t>4988523396</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:45:00</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44402.73958333334</v>
       </c>
       <c r="I347" t="n">
         <v>3</v>
@@ -25894,10 +25218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:44:57</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44402.73954861111</v>
       </c>
       <c r="I348" t="n">
         <v>7</v>
@@ -25961,10 +25283,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:44:44</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44402.73939814815</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26036,10 +25356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:44:42</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44402.739375</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -26107,10 +25425,8 @@
           <t>4988469953</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:44:20</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44402.73912037037</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26182,10 +25498,8 @@
           <t>4988481957</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:44:18</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44402.73909722222</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26261,10 +25575,8 @@
           <t>4988512607</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:44:06</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44402.73895833334</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26328,10 +25640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:43:28</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44402.73851851852</v>
       </c>
       <c r="I354" t="n">
         <v>7</v>
@@ -26403,10 +25713,8 @@
           <t>4988469953</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:56</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44402.73814814815</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26474,10 +25782,8 @@
           <t>4988512607</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:53</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44402.73811342593</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26541,10 +25847,8 @@
           <t>4988460330</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:51</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44402.73809027778</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26616,10 +25920,8 @@
           <t>4988461028</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:34</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44402.73789351852</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26691,10 +25993,8 @@
           <t>4988504557</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:18</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44402.73770833333</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26766,10 +26066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:14</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44402.73766203703</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26841,10 +26139,8 @@
           <t>4988504338</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:42:12</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44402.73763888889</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26921,10 +26217,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:58</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44402.73747685185</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26984,10 +26278,8 @@
           <t>4988510693</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:57</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44402.73746527778</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27069,10 +26361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:56</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44402.7374537037</v>
       </c>
       <c r="I364" t="n">
         <v>8</v>
@@ -27136,10 +26426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:44</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44402.73731481482</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27215,10 +26503,8 @@
           <t>4988469953</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:44</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44402.73731481482</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27286,10 +26572,8 @@
           <t>4988503182</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:41</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44402.7372800926</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27357,10 +26641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:31</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44402.73716435185</v>
       </c>
       <c r="I368" t="n">
         <v>4</v>
@@ -27424,10 +26706,8 @@
           <t>4988499569</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:18</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44402.73701388889</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27503,10 +26783,8 @@
           <t>4988445241</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:16</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44402.73699074074</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27582,10 +26860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:13</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44402.73695601852</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27661,10 +26937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:41:00</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44402.73680555556</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27740,10 +27014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:40:52</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44402.73671296296</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27822,10 +27094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:40:39</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44402.7365625</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27901,10 +27171,8 @@
           <t>4988461028</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:40:21</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44402.73635416666</v>
       </c>
       <c r="I375" t="n">
         <v>9</v>
@@ -27976,10 +27244,8 @@
           <t>4988489758</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:40:10</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44402.73622685186</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28043,10 +27309,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:39:37</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44402.73584490741</v>
       </c>
       <c r="I377" t="n">
         <v>4</v>
@@ -28114,10 +27378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:39:20</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44402.73564814815</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28181,10 +27443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:39:06</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44402.73548611111</v>
       </c>
       <c r="I379" t="n">
         <v>11</v>
@@ -28248,10 +27508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:38:37</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44402.73515046296</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28327,10 +27585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:38:29</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44402.73505787037</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28398,10 +27654,8 @@
           <t>4988482733</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:38:29</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44402.73505787037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28479,10 +27733,8 @@
           <t>4988481957</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:38:09</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44402.73482638889</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28550,10 +27802,8 @@
           <t>4988485116</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:38:05</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44402.73478009259</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28625,10 +27875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:58</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44402.73469907408</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28704,10 +27952,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:47</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44402.73457175926</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28771,10 +28017,8 @@
           <t>4988477048</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:44</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44402.73453703704</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28838,10 +28082,8 @@
           <t>4988469953</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:18</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44402.73423611111</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28913,10 +28155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:12</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44402.73416666667</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28984,10 +28224,8 @@
           <t>4988469491</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:07</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44402.7341087963</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29063,10 +28301,8 @@
           <t>4988475723</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:05</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44402.73408564815</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29134,10 +28370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:37:04</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44402.73407407408</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29215,10 +28449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:57</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44402.73399305555</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29290,10 +28522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44402.73395833333</v>
       </c>
       <c r="I394" t="n">
         <v>3</v>
@@ -29365,10 +28595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:35</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44402.73373842592</v>
       </c>
       <c r="I395" t="n">
         <v>3</v>
@@ -29444,10 +28672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:33</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44402.73371527778</v>
       </c>
       <c r="I396" t="n">
         <v>13</v>
@@ -29511,10 +28737,8 @@
           <t>4988467708</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:23</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44402.73359953704</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29586,10 +28810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:21</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44402.73357638889</v>
       </c>
       <c r="I398" t="n">
         <v>8</v>
@@ -29657,10 +28879,8 @@
           <t>4988445241</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:08</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44402.73342592592</v>
       </c>
       <c r="I399" t="n">
         <v>5</v>
@@ -29732,10 +28952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:36:05</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44402.73339120371</v>
       </c>
       <c r="I400" t="n">
         <v>8</v>
@@ -29795,10 +29013,8 @@
           <t>4988470092</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:55</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44402.73327546296</v>
       </c>
       <c r="I401" t="n">
         <v>28</v>
@@ -29874,10 +29090,8 @@
           <t>4988459991</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:52</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44402.73324074074</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29941,10 +29155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:43</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44402.73313657408</v>
       </c>
       <c r="I403" t="n">
         <v>2</v>
@@ -30008,10 +29220,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:41</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44402.73311342593</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30079,10 +29289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:38</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44402.73307870371</v>
       </c>
       <c r="I405" t="n">
         <v>5</v>
@@ -30146,10 +29354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:22</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44402.73289351852</v>
       </c>
       <c r="I406" t="n">
         <v>6</v>
@@ -30217,10 +29423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:17</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44402.73283564814</v>
       </c>
       <c r="I407" t="n">
         <v>428</v>
@@ -30296,10 +29500,8 @@
           <t>4988461927</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:15</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44402.7328125</v>
       </c>
       <c r="I408" t="n">
         <v>4</v>
@@ -30371,10 +29573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:09</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44402.73274305555</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30442,10 +29642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:08</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44402.73273148148</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30509,10 +29707,8 @@
           <t>4988458025</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:35:00</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44402.73263888889</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30580,10 +29776,8 @@
           <t>4988461028</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:34:48</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44402.7325</v>
       </c>
       <c r="I412" t="n">
         <v>9</v>
@@ -30655,10 +29849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:34:28</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44402.73226851852</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30722,10 +29914,8 @@
           <t>4988460330</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:34:28</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44402.73226851852</v>
       </c>
       <c r="I414" t="n">
         <v>24</v>
@@ -30790,10 +29980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:34:05</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44402.73200231481</v>
       </c>
       <c r="I415" t="n">
         <v>166</v>
@@ -30865,10 +30053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:34:03</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44402.73197916667</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30940,10 +30126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:34:02</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44402.73196759259</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31015,10 +30199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:55</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44402.73188657407</v>
       </c>
       <c r="I418" t="n">
         <v>63</v>
@@ -31090,10 +30272,8 @@
           <t>4988445241</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:43</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44402.73174768518</v>
       </c>
       <c r="I419" t="n">
         <v>29</v>
@@ -31165,10 +30345,8 @@
           <t>4988444848</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:37</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44402.73167824074</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31228,10 +30406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:30</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44402.73159722222</v>
       </c>
       <c r="I421" t="n">
         <v>53</v>
@@ -31307,10 +30483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:30</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44402.73159722222</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31370,10 +30544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:17</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44402.73144675926</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31449,10 +30621,8 @@
           <t>4988437924</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:33:00</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44402.73125</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31520,10 +30690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:41</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44402.73103009259</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31595,10 +30763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:41</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44402.73103009259</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31671,10 +30837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:36</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44402.73097222222</v>
       </c>
       <c r="I427" t="n">
         <v>17</v>
@@ -31738,10 +30902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:30</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44402.73090277778</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31805,10 +30967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:30</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44402.73090277778</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31884,10 +31044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:24</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44402.73083333333</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31947,10 +31105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:23</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44402.73082175926</v>
       </c>
       <c r="I431" t="n">
         <v>7</v>
@@ -32026,10 +31182,8 @@
           <t>4988437924</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:23</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44402.73082175926</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32105,10 +31259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:17</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44402.73075231481</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32176,10 +31328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:16</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44402.73074074074</v>
       </c>
       <c r="I434" t="n">
         <v>192</v>
@@ -32251,10 +31401,8 @@
           <t>4988441752</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:16</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44402.73074074074</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -32331,10 +31479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:05</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44402.73061342593</v>
       </c>
       <c r="I436" t="n">
         <v>6</v>
@@ -32394,10 +31540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:01</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44402.73056712963</v>
       </c>
       <c r="I437" t="n">
         <v>4</v>
@@ -32465,10 +31609,8 @@
           <t>4988445241</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:32:00</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44402.73055555556</v>
       </c>
       <c r="I438" t="n">
         <v>26</v>
@@ -32536,10 +31678,8 @@
           <t>4988436789</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:54</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44402.73048611111</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32607,10 +31747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:52</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44402.73046296297</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32678,10 +31816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:52</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44402.73046296297</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32745,10 +31881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:52</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44402.73046296297</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32820,10 +31954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:44</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44402.73037037037</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32899,10 +32031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:43</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44402.7303587963</v>
       </c>
       <c r="I444" t="n">
         <v>3</v>
@@ -32975,10 +32105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:32</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44402.73023148148</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33050,10 +32178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:31</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44402.7302199074</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33125,10 +32251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:30</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44402.73020833333</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33192,10 +32316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:26</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44402.73016203703</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33255,10 +32377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:25</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44402.73015046296</v>
       </c>
       <c r="I449" t="n">
         <v>4</v>
@@ -33326,10 +32446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:23</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44402.73012731481</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33405,10 +32523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:23</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44402.73012731481</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33480,10 +32596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:23</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44402.73012731481</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33551,10 +32665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:22</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44402.73011574074</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33626,10 +32738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:22</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44402.73011574074</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33697,10 +32807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:17</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44402.73005787037</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33776,10 +32884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:17</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44402.73005787037</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33847,10 +32953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:14</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44402.73002314815</v>
       </c>
       <c r="I457" t="n">
         <v>916</v>
@@ -33922,10 +33026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:14</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44402.73002314815</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33989,10 +33091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:13</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44402.73001157407</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34068,10 +33168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:11</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44402.72998842593</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34135,10 +33233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:10</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44402.72997685185</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34202,10 +33298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:31:06</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44402.72993055556</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34277,10 +33371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:30:49</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44402.7297337963</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34356,10 +33448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:30:49</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44402.7297337963</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34435,10 +33525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:30:44</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44402.72967592593</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34514,10 +33602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-25 17:30:43</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44402.72966435185</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
